--- a/prueba_contabilidad_bls.xlsx
+++ b/prueba_contabilidad_bls.xlsx
@@ -545,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,7 +2646,7 @@
         <v>45901</v>
       </c>
       <c r="C190" t="n">
-        <v>150.489</v>
+        <v>150.483</v>
       </c>
     </row>
     <row r="191">
@@ -2657,7 +2657,7 @@
         <v>45931</v>
       </c>
       <c r="C191" t="n">
-        <v>150.222</v>
+        <v>150.247</v>
       </c>
     </row>
     <row r="192">
@@ -2668,7 +2668,18 @@
         <v>45962</v>
       </c>
       <c r="C192" t="n">
-        <v>151.341</v>
+        <v>151.259</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>16</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C193" t="n">
+        <v>152.381</v>
       </c>
     </row>
   </sheetData>
